--- a/Datasets/xml_files/uk_housing_2020 - final.xlsx
+++ b/Datasets/xml_files/uk_housing_2020 - final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\hands-on-machine-learning\Datasets\xml_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3BFB283-AB1F-46B6-B7F9-52DD1B62408B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8B6A0B-C9B2-4892-ADF1-75ACAB3F2034}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AF969AD4-31E7-472E-943A-991AF67D779C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="678">
   <si>
     <t>AREACD</t>
   </si>
@@ -1179,33 +1179,18 @@
     <t>E07000177</t>
   </si>
   <si>
-    <t xml:space="preserve">  Cherwell</t>
-  </si>
-  <si>
     <t>E07000178</t>
   </si>
   <si>
-    <t xml:space="preserve">  Oxford</t>
-  </si>
-  <si>
     <t>E07000179</t>
   </si>
   <si>
-    <t xml:space="preserve">  South Oxfordshire</t>
-  </si>
-  <si>
     <t>E07000180</t>
   </si>
   <si>
-    <t xml:space="preserve">  Vale of White Horse</t>
-  </si>
-  <si>
     <t>E07000181</t>
   </si>
   <si>
-    <t xml:space="preserve">  West Oxfordshire</t>
-  </si>
-  <si>
     <t>E07000187</t>
   </si>
   <si>
@@ -1923,139 +1908,157 @@
     <t>W06000001</t>
   </si>
   <si>
-    <t>Isle of Anglesey / Ynys Môn</t>
-  </si>
-  <si>
     <t>W06000002</t>
   </si>
   <si>
-    <t>Gwynedd / Gwynedd</t>
-  </si>
-  <si>
     <t>W06000003</t>
   </si>
   <si>
-    <t>Conwy / Conwy</t>
-  </si>
-  <si>
     <t>W06000004</t>
   </si>
   <si>
-    <t>Denbighshire / Sir Ddinbych</t>
-  </si>
-  <si>
     <t>W06000005</t>
   </si>
   <si>
-    <t>Flintshire / Sir y Fflint</t>
-  </si>
-  <si>
     <t>W06000006</t>
   </si>
   <si>
-    <t>Wrexham / Wrecsam</t>
-  </si>
-  <si>
     <t>W06000008</t>
   </si>
   <si>
-    <t>Ceredigion / Ceredigion</t>
-  </si>
-  <si>
     <t>W06000009</t>
   </si>
   <si>
-    <t>Pembrokeshire / Sir Benfro</t>
-  </si>
-  <si>
     <t>W06000010</t>
   </si>
   <si>
-    <t>Carmarthenshire / Sir Gaerfyrddin</t>
-  </si>
-  <si>
     <t>W06000011</t>
   </si>
   <si>
-    <t>Swansea / Abertawe</t>
-  </si>
-  <si>
     <t>W06000012</t>
   </si>
   <si>
-    <t>Neath Port Talbot / Castell-nedd Port Talbot</t>
-  </si>
-  <si>
     <t>W06000013</t>
   </si>
   <si>
-    <t>Bridgend / Pen-y-bont ar Ogwr</t>
-  </si>
-  <si>
     <t>W06000014</t>
   </si>
   <si>
-    <t>Vale of Glamorgan / Bro Morgannwg</t>
-  </si>
-  <si>
     <t>W06000015</t>
   </si>
   <si>
-    <t>Cardiff / Caerdydd</t>
-  </si>
-  <si>
     <t>W06000016</t>
   </si>
   <si>
-    <t>Rhondda Cynon Taf / Rhondda Cynon Taf</t>
-  </si>
-  <si>
     <t>W06000018</t>
   </si>
   <si>
-    <t>Caerphilly / Caerffili</t>
-  </si>
-  <si>
     <t>W06000019</t>
   </si>
   <si>
-    <t>Blaenau Gwent / Blaenau Gwent</t>
-  </si>
-  <si>
     <t>W06000020</t>
   </si>
   <si>
-    <t>Torfaen / Torfaen</t>
-  </si>
-  <si>
     <t>W06000021</t>
   </si>
   <si>
-    <t>Monmouthshire / Sir Fynwy</t>
-  </si>
-  <si>
     <t>W06000022</t>
   </si>
   <si>
-    <t>Newport / Casnewydd</t>
-  </si>
-  <si>
     <t>W06000023</t>
   </si>
   <si>
-    <t>Powys / Powys</t>
-  </si>
-  <si>
     <t>W06000024</t>
   </si>
   <si>
-    <t>Merthyr Tydfil / Merthyr Tudful</t>
-  </si>
-  <si>
     <t>Estimated Population mid-2019</t>
   </si>
   <si>
     <t>Year ending Mar 2020</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Cherwell</t>
+  </si>
+  <si>
+    <t>South Oxfordshire</t>
+  </si>
+  <si>
+    <t>Vale of White Horse</t>
+  </si>
+  <si>
+    <t>West Oxfordshire</t>
+  </si>
+  <si>
+    <t>Isle of Anglesey</t>
+  </si>
+  <si>
+    <t>Gwynedd</t>
+  </si>
+  <si>
+    <t>Conwy</t>
+  </si>
+  <si>
+    <t>Denbighshire</t>
+  </si>
+  <si>
+    <t>Flintshire</t>
+  </si>
+  <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Ceredigion</t>
+  </si>
+  <si>
+    <t>Pembrokeshire</t>
+  </si>
+  <si>
+    <t>Carmarthenshire</t>
+  </si>
+  <si>
+    <t>Swansea</t>
+  </si>
+  <si>
+    <t>Neath Port Talbot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgend </t>
+  </si>
+  <si>
+    <t>Vale of Glamorgan</t>
+  </si>
+  <si>
+    <t>Cardiff</t>
+  </si>
+  <si>
+    <t>Rhondda Cynon Taf</t>
+  </si>
+  <si>
+    <t>Caerphilly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaenau Gwent </t>
+  </si>
+  <si>
+    <t>Torfaen</t>
+  </si>
+  <si>
+    <t>Monmouthshire</t>
+  </si>
+  <si>
+    <t>Newport</t>
+  </si>
+  <si>
+    <t>Powys</t>
+  </si>
+  <si>
+    <t>Merthyr Tydfil</t>
+  </si>
+  <si>
+    <t>2019 people per sq. km</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2164,12 +2167,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2192,15 +2208,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{874BAE79-C974-4884-9647-5ACAC0C1F274}"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2209,13 +2228,13 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="8"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -2240,6 +2259,25 @@
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2254,14 +2292,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFDFC908-A738-44B6-99FA-25F1D8B0DE8C}" name="Table1" displayName="Table1" ref="A1:E337" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E337" xr:uid="{216906B2-37F6-475A-9AE8-C0D1C93D81C5}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CFDFC908-A738-44B6-99FA-25F1D8B0DE8C}" name="Table1" displayName="Table1" ref="A1:F337" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="A1:F337" xr:uid="{216906B2-37F6-475A-9AE8-C0D1C93D81C5}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{2E7F97B4-045B-43A8-ADD7-9DBA8CF2742A}" name="AREACD"/>
     <tableColumn id="2" xr3:uid="{3862C2F4-454E-440E-A151-24DA478BBFE4}" name="AREANM"/>
     <tableColumn id="3" xr3:uid="{CC784661-456F-492A-9500-C7834492A824}" name="earnings"/>
     <tableColumn id="4" xr3:uid="{E03781AF-E2A6-4481-90BC-155012034C44}" name="Estimated Population mid-2019" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{4F67EBD0-F211-4ED7-8EC5-29FCC910BAC8}" name="Year ending Mar 2020" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{28C50C7C-5FA3-4C59-A177-354D4A1AA1CC}" name="2019 people per sq. km" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2564,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CCFFF7F-F773-410E-B38F-D65CBF9A0962}">
-  <dimension ref="A1:E337"/>
+  <dimension ref="A1:F337"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2577,9 +2616,10 @@
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2590,13 +2630,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>675</v>
+        <v>648</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2612,8 +2655,11 @@
       <c r="E2" s="5">
         <v>128500</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="4">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2629,8 +2675,11 @@
       <c r="E3" s="6">
         <v>137000</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="4">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -2646,8 +2695,11 @@
       <c r="E4" s="5">
         <v>132950</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2663,8 +2715,11 @@
       <c r="E5" s="6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="4">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2680,8 +2735,11 @@
       <c r="E6" s="5">
         <v>144000</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="4">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2697,8 +2755,11 @@
       <c r="E7" s="6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="4">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -2714,8 +2775,11 @@
       <c r="E8" s="5">
         <v>195000</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -2731,8 +2795,11 @@
       <c r="E9" s="6">
         <v>125000</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="4">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2748,8 +2815,11 @@
       <c r="E10" s="5">
         <v>118000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="4">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -2765,8 +2835,11 @@
       <c r="E11" s="6">
         <v>120000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="4">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2782,8 +2855,11 @@
       <c r="E12" s="5">
         <v>185000</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2799,8 +2875,11 @@
       <c r="E13" s="6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="4">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
@@ -2816,8 +2895,11 @@
       <c r="E14" s="5">
         <v>142995</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -2833,8 +2915,11 @@
       <c r="E15" s="6">
         <v>245000</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="4">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>31</v>
       </c>
@@ -2850,8 +2935,11 @@
       <c r="E16" s="5">
         <v>170000</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="4">
+        <v>3297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -2867,8 +2955,11 @@
       <c r="E17" s="6">
         <v>180000</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="4">
+        <v>4830</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2884,8 +2975,11 @@
       <c r="E18" s="5">
         <v>276250</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -2901,8 +2995,11 @@
       <c r="E19" s="6">
         <v>140000</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="4">
+        <v>4462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -2918,8 +3015,11 @@
       <c r="E20" s="5">
         <v>240000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>41</v>
       </c>
@@ -2935,8 +3035,11 @@
       <c r="E21" s="6">
         <v>177000</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="4">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>43</v>
       </c>
@@ -2952,8 +3055,11 @@
       <c r="E22" s="5">
         <v>122500</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="4">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2969,8 +3075,11 @@
       <c r="E23" s="6">
         <v>323000</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="4">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>47</v>
       </c>
@@ -2986,8 +3095,11 @@
       <c r="E24" s="5">
         <v>271000</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="4">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -3003,8 +3115,11 @@
       <c r="E25" s="6">
         <v>263000</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
@@ -3020,8 +3135,11 @@
       <c r="E26" s="5">
         <v>280000</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -3037,8 +3155,11 @@
       <c r="E27" s="6">
         <v>180000</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <v>3282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3054,8 +3175,11 @@
       <c r="E28" s="5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="4">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -3071,8 +3195,11 @@
       <c r="E29" s="6">
         <v>230000</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="4">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>59</v>
       </c>
@@ -3088,8 +3215,11 @@
       <c r="E30" s="5">
         <v>205000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="4">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3105,8 +3235,11 @@
       <c r="E31" s="6">
         <v>245000</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="4">
+        <v>4914</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>63</v>
       </c>
@@ -3122,8 +3255,11 @@
       <c r="E32" s="5">
         <v>289000</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="4">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -3139,8 +3275,11 @@
       <c r="E33" s="6">
         <v>285000</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="4">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>67</v>
       </c>
@@ -3156,8 +3295,11 @@
       <c r="E34" s="5">
         <v>252500</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="4">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -3173,8 +3315,11 @@
       <c r="E35" s="6">
         <v>347500</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>71</v>
       </c>
@@ -3190,8 +3335,11 @@
       <c r="E36" s="5">
         <v>342750</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="4">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>73</v>
       </c>
@@ -3207,8 +3355,11 @@
       <c r="E37" s="6">
         <v>305000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="4">
+        <v>4005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
@@ -3224,8 +3375,11 @@
       <c r="E38" s="5">
         <v>323000</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="4">
+        <v>4595</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>77</v>
       </c>
@@ -3241,8 +3395,11 @@
       <c r="E39" s="6">
         <v>475000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="4">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>79</v>
       </c>
@@ -3258,8 +3415,11 @@
       <c r="E40" s="5">
         <v>420000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="4">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -3275,8 +3435,11 @@
       <c r="E41" s="6">
         <v>291000</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="4">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>83</v>
       </c>
@@ -3292,8 +3455,11 @@
       <c r="E42" s="5">
         <v>360000</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="4">
+        <v>3512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -3309,8 +3475,11 @@
       <c r="E43" s="6">
         <v>213000</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="4">
+        <v>5321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -3326,8 +3495,11 @@
       <c r="E44" s="5">
         <v>219000</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="4">
+        <v>5062</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -3343,8 +3515,11 @@
       <c r="E45" s="6">
         <v>215000</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>91</v>
       </c>
@@ -3360,8 +3535,11 @@
       <c r="E46" s="5">
         <v>121995</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -3377,8 +3555,11 @@
       <c r="E47" s="6">
         <v>240000</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="4">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>95</v>
       </c>
@@ -3394,8 +3575,11 @@
       <c r="E48" s="5">
         <v>207995</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -3411,8 +3595,11 @@
       <c r="E49" s="6">
         <v>223995</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>99</v>
       </c>
@@ -3428,8 +3615,11 @@
       <c r="E50" s="5">
         <v>232000</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -3442,8 +3632,11 @@
       <c r="E51" s="6">
         <v>325000</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>103</v>
       </c>
@@ -3459,8 +3652,11 @@
       <c r="E52" s="5">
         <v>275000</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>105</v>
       </c>
@@ -3476,8 +3672,11 @@
       <c r="E53" s="6">
         <v>284995</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="4">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>107</v>
       </c>
@@ -3493,8 +3692,11 @@
       <c r="E54" s="5">
         <v>313000</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>109</v>
       </c>
@@ -3510,8 +3712,11 @@
       <c r="E55" s="6">
         <v>167000</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>111</v>
       </c>
@@ -3527,8 +3732,11 @@
       <c r="E56" s="5">
         <v>282500</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="4">
+        <v>2439</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -3544,8 +3752,11 @@
       <c r="E57" s="6">
         <v>286000</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="4">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>115</v>
       </c>
@@ -3561,8 +3772,11 @@
       <c r="E58" s="5">
         <v>395000</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>117</v>
       </c>
@@ -3578,8 +3792,11 @@
       <c r="E59" s="6">
         <v>426000</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="4">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
@@ -3595,8 +3812,11 @@
       <c r="E60" s="5">
         <v>297500</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>121</v>
       </c>
@@ -3612,8 +3832,11 @@
       <c r="E61" s="6">
         <v>192500</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>123</v>
       </c>
@@ -3629,8 +3852,11 @@
       <c r="E62" s="5">
         <v>280000</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="4">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>125</v>
       </c>
@@ -3646,8 +3872,11 @@
       <c r="E63" s="6">
         <v>375000</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>127</v>
       </c>
@@ -3663,8 +3892,11 @@
       <c r="E64" s="5">
         <v>163500</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -3680,8 +3912,11 @@
       <c r="E65" s="6">
         <v>127000</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="4">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -3697,8 +3932,11 @@
       <c r="E66" s="5">
         <v>144500</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>133</v>
       </c>
@@ -3714,8 +3952,11 @@
       <c r="E67" s="6">
         <v>130000</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -3731,8 +3972,11 @@
       <c r="E68" s="5">
         <v>209950</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>137</v>
       </c>
@@ -3748,8 +3992,11 @@
       <c r="E69" s="6">
         <v>249972.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -3765,8 +4012,11 @@
       <c r="E70" s="5">
         <v>177000</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="4">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -3782,8 +4032,11 @@
       <c r="E71" s="6">
         <v>135750</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="4">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>143</v>
       </c>
@@ -3799,8 +4052,11 @@
       <c r="E72" s="5">
         <v>157000</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="4">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>145</v>
       </c>
@@ -3816,8 +4072,11 @@
       <c r="E73" s="6">
         <v>265000</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>147</v>
       </c>
@@ -3833,8 +4092,11 @@
       <c r="E74" s="5">
         <v>162500</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="4">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>149</v>
       </c>
@@ -3850,8 +4112,11 @@
       <c r="E75" s="6">
         <v>195000</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="4">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>151</v>
       </c>
@@ -3867,8 +4132,11 @@
       <c r="E76" s="5">
         <v>191000</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="4">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>153</v>
       </c>
@@ -3884,8 +4152,11 @@
       <c r="E77" s="6">
         <v>217997.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -3901,8 +4172,11 @@
       <c r="E78" s="5">
         <v>276750</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>157</v>
       </c>
@@ -3918,8 +4192,11 @@
       <c r="E79" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="4">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -3935,8 +4212,11 @@
       <c r="E80" s="5">
         <v>240000</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>161</v>
       </c>
@@ -3952,8 +4232,11 @@
       <c r="E81" s="6">
         <v>255000</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>163</v>
       </c>
@@ -3969,8 +4252,11 @@
       <c r="E82" s="5">
         <v>292750</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>165</v>
       </c>
@@ -3986,8 +4272,11 @@
       <c r="E83" s="6">
         <v>247500</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="4">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>167</v>
       </c>
@@ -4003,8 +4292,11 @@
       <c r="E84" s="5">
         <v>225000</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>169</v>
       </c>
@@ -4020,8 +4312,11 @@
       <c r="E85" s="6">
         <v>254500</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="4">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>171</v>
       </c>
@@ -4037,8 +4332,11 @@
       <c r="E86" s="5">
         <v>245000</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="4">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>173</v>
       </c>
@@ -4054,8 +4352,11 @@
       <c r="E87" s="6">
         <v>230000</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="4">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>175</v>
       </c>
@@ -4071,8 +4372,11 @@
       <c r="E88" s="5">
         <v>321000</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>177</v>
       </c>
@@ -4088,8 +4392,11 @@
       <c r="E89" s="6">
         <v>304995</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>179</v>
       </c>
@@ -4105,8 +4412,11 @@
       <c r="E90" s="5">
         <v>315000</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="4">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>181</v>
       </c>
@@ -4122,8 +4432,11 @@
       <c r="E91" s="6">
         <v>300000</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="4">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>183</v>
       </c>
@@ -4139,8 +4452,11 @@
       <c r="E92" s="5">
         <v>290000</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="4">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -4156,8 +4472,11 @@
       <c r="E93" s="6">
         <v>420000</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="4">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>187</v>
       </c>
@@ -4173,8 +4492,11 @@
       <c r="E94" s="5">
         <v>300000</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>189</v>
       </c>
@@ -4190,8 +4512,11 @@
       <c r="E95" s="6">
         <v>357500</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="4">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>191</v>
       </c>
@@ -4207,8 +4532,11 @@
       <c r="E96" s="5">
         <v>273000</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="4">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>193</v>
       </c>
@@ -4224,8 +4552,11 @@
       <c r="E97" s="6">
         <v>450000</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
@@ -4241,8 +4572,11 @@
       <c r="E98" s="5">
         <v>287500</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="4">
+        <v>2851</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>197</v>
       </c>
@@ -4258,8 +4592,11 @@
       <c r="E99" s="6">
         <v>320000</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="4">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -4275,8 +4612,11 @@
       <c r="E100" s="5">
         <v>332500</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="4">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>201</v>
       </c>
@@ -4292,8 +4632,11 @@
       <c r="E101" s="6">
         <v>240000</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
@@ -4309,8 +4652,11 @@
       <c r="E102" s="5">
         <v>409497.5</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="4">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>205</v>
       </c>
@@ -4326,8 +4672,11 @@
       <c r="E103" s="6">
         <v>263500</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="4">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>207</v>
       </c>
@@ -4343,8 +4692,11 @@
       <c r="E104" s="5">
         <v>350000</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>209</v>
       </c>
@@ -4360,8 +4712,11 @@
       <c r="E105" s="6">
         <v>230000</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="4">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>211</v>
       </c>
@@ -4377,8 +4732,11 @@
       <c r="E106" s="5">
         <v>205000</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="4">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>213</v>
       </c>
@@ -4394,8 +4752,11 @@
       <c r="E107" s="6">
         <v>275000</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>215</v>
       </c>
@@ -4411,8 +4772,11 @@
       <c r="E108" s="5">
         <v>270000</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>217</v>
       </c>
@@ -4428,8 +4792,11 @@
       <c r="E109" s="6">
         <v>302437.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="4">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>219</v>
       </c>
@@ -4445,8 +4812,11 @@
       <c r="E110" s="5">
         <v>374995</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="4">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>221</v>
       </c>
@@ -4462,8 +4832,11 @@
       <c r="E111" s="6">
         <v>300000</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="4">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -4479,8 +4852,11 @@
       <c r="E112" s="5">
         <v>292500</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="4">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>225</v>
       </c>
@@ -4496,8 +4872,11 @@
       <c r="E113" s="6">
         <v>206000</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="4">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
@@ -4513,8 +4892,11 @@
       <c r="E114" s="5">
         <v>400000</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="4">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>229</v>
       </c>
@@ -4530,8 +4912,11 @@
       <c r="E115" s="6">
         <v>275000</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="4">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>231</v>
       </c>
@@ -4547,8 +4932,11 @@
       <c r="E116" s="5">
         <v>335000</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="4">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>233</v>
       </c>
@@ -4564,8 +4952,11 @@
       <c r="E117" s="6">
         <v>300000</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="4">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>235</v>
       </c>
@@ -4581,8 +4972,11 @@
       <c r="E118" s="5">
         <v>308000</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>237</v>
       </c>
@@ -4598,8 +4992,11 @@
       <c r="E119" s="6">
         <v>415000</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>239</v>
       </c>
@@ -4615,8 +5012,11 @@
       <c r="E120" s="5">
         <v>360000</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="4">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>241</v>
       </c>
@@ -4632,8 +5032,11 @@
       <c r="E121" s="6">
         <v>380000</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="4">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>243</v>
       </c>
@@ -4649,8 +5052,11 @@
       <c r="E122" s="5">
         <v>445000</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="4">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>245</v>
       </c>
@@ -4666,8 +5072,11 @@
       <c r="E123" s="6">
         <v>352000</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
@@ -4683,8 +5092,11 @@
       <c r="E124" s="5">
         <v>462500</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="4">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>249</v>
       </c>
@@ -4700,8 +5112,11 @@
       <c r="E125" s="6">
         <v>365000</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="4">
+        <v>4507</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -4717,8 +5132,11 @@
       <c r="E126" s="5">
         <v>288000</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="4">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>253</v>
       </c>
@@ -4734,8 +5152,11 @@
       <c r="E127" s="6">
         <v>305000</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="4">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -4751,8 +5172,11 @@
       <c r="E128" s="5">
         <v>324481.5</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="4">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>257</v>
       </c>
@@ -4768,8 +5192,11 @@
       <c r="E129" s="6">
         <v>250000</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>259</v>
       </c>
@@ -4785,8 +5212,11 @@
       <c r="E130" s="5">
         <v>290000</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="4">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>261</v>
       </c>
@@ -4802,8 +5232,11 @@
       <c r="E131" s="6">
         <v>317500</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>263</v>
       </c>
@@ -4819,8 +5252,11 @@
       <c r="E132" s="5">
         <v>400000</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="4">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>265</v>
       </c>
@@ -4836,8 +5272,11 @@
       <c r="E133" s="6">
         <v>260000</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="4">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>267</v>
       </c>
@@ -4853,8 +5292,11 @@
       <c r="E134" s="5">
         <v>250000</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>269</v>
       </c>
@@ -4870,8 +5312,11 @@
       <c r="E135" s="6">
         <v>240000</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="4">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>271</v>
       </c>
@@ -4887,8 +5332,11 @@
       <c r="E136" s="5">
         <v>350000</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>273</v>
       </c>
@@ -4904,8 +5352,11 @@
       <c r="E137" s="6">
         <v>385000</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>275</v>
       </c>
@@ -4921,8 +5372,11 @@
       <c r="E138" s="5">
         <v>97500</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="4">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>277</v>
       </c>
@@ -4938,8 +5392,11 @@
       <c r="E139" s="6">
         <v>175000</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>279</v>
       </c>
@@ -4955,8 +5412,11 @@
       <c r="E140" s="5">
         <v>200000</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="4">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>281</v>
       </c>
@@ -4972,8 +5432,11 @@
       <c r="E141" s="6">
         <v>110000</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="4">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>283</v>
       </c>
@@ -4989,8 +5452,11 @@
       <c r="E142" s="5">
         <v>159950</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>285</v>
       </c>
@@ -5006,8 +5472,11 @@
       <c r="E143" s="6">
         <v>112500</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="4">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>287</v>
       </c>
@@ -5023,8 +5492,11 @@
       <c r="E144" s="5">
         <v>150000</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="4">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>289</v>
       </c>
@@ -5040,8 +5512,11 @@
       <c r="E145" s="6">
         <v>237747.5</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>291</v>
       </c>
@@ -5057,8 +5532,11 @@
       <c r="E146" s="5">
         <v>138250</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>293</v>
       </c>
@@ -5074,8 +5552,11 @@
       <c r="E147" s="6">
         <v>167000</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="4">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>295</v>
       </c>
@@ -5091,8 +5572,11 @@
       <c r="E148" s="5">
         <v>188747.5</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="4">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>297</v>
       </c>
@@ -5108,8 +5592,11 @@
       <c r="E149" s="6">
         <v>162000</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>299</v>
       </c>
@@ -5125,8 +5612,11 @@
       <c r="E150" s="5">
         <v>220000</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="4">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>301</v>
       </c>
@@ -5142,8 +5632,11 @@
       <c r="E151" s="6">
         <v>222750</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="4">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>303</v>
       </c>
@@ -5159,8 +5652,11 @@
       <c r="E152" s="5">
         <v>292000</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>305</v>
       </c>
@@ -5176,8 +5672,11 @@
       <c r="E153" s="6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>307</v>
       </c>
@@ -5193,8 +5692,11 @@
       <c r="E154" s="5">
         <v>220000</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="4">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>309</v>
       </c>
@@ -5210,8 +5712,11 @@
       <c r="E155" s="6">
         <v>218500</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>311</v>
       </c>
@@ -5227,8 +5732,11 @@
       <c r="E156" s="5">
         <v>229500</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="4">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>313</v>
       </c>
@@ -5244,8 +5752,11 @@
       <c r="E157" s="6">
         <v>166475</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="4">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>315</v>
       </c>
@@ -5261,8 +5772,11 @@
       <c r="E158" s="5">
         <v>175000</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>317</v>
       </c>
@@ -5278,8 +5792,11 @@
       <c r="E159" s="6">
         <v>155000</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="4">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>319</v>
       </c>
@@ -5295,8 +5812,11 @@
       <c r="E160" s="5">
         <v>202500</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>321</v>
       </c>
@@ -5312,8 +5832,11 @@
       <c r="E161" s="6">
         <v>189558.5</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="4">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>323</v>
       </c>
@@ -5329,8 +5852,11 @@
       <c r="E162" s="5">
         <v>215000</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>325</v>
       </c>
@@ -5346,8 +5872,11 @@
       <c r="E163" s="6">
         <v>180000</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>327</v>
       </c>
@@ -5363,8 +5892,11 @@
       <c r="E164" s="5">
         <v>220000</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>329</v>
       </c>
@@ -5380,8 +5912,11 @@
       <c r="E165" s="6">
         <v>252500</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="4">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>331</v>
       </c>
@@ -5397,8 +5932,11 @@
       <c r="E166" s="5">
         <v>183995</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>333</v>
       </c>
@@ -5414,8 +5952,11 @@
       <c r="E167" s="6">
         <v>224997.5</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>335</v>
       </c>
@@ -5431,8 +5972,11 @@
       <c r="E168" s="5">
         <v>259950</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>337</v>
       </c>
@@ -5448,8 +5992,11 @@
       <c r="E169" s="6">
         <v>196000</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="4">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>339</v>
       </c>
@@ -5465,8 +6012,11 @@
       <c r="E170" s="5">
         <v>260000</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>341</v>
       </c>
@@ -5482,8 +6032,11 @@
       <c r="E171" s="6">
         <v>189950</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="4">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>343</v>
       </c>
@@ -5499,8 +6052,11 @@
       <c r="E172" s="5">
         <v>276000</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>345</v>
       </c>
@@ -5516,8 +6072,11 @@
       <c r="E173" s="6">
         <v>225000</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>347</v>
       </c>
@@ -5533,8 +6092,11 @@
       <c r="E174" s="5">
         <v>212000</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>349</v>
       </c>
@@ -5550,8 +6112,11 @@
       <c r="E175" s="6">
         <v>211000</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="4">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>351</v>
       </c>
@@ -5567,8 +6132,11 @@
       <c r="E176" s="5">
         <v>310000</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="4">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>353</v>
       </c>
@@ -5584,8 +6152,11 @@
       <c r="E177" s="6">
         <v>214500</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="4">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>355</v>
       </c>
@@ -5601,8 +6172,11 @@
       <c r="E178" s="5">
         <v>225000</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>357</v>
       </c>
@@ -5618,8 +6192,11 @@
       <c r="E179" s="6">
         <v>238475</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>359</v>
       </c>
@@ -5635,8 +6212,11 @@
       <c r="E180" s="5">
         <v>297500</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="4">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>361</v>
       </c>
@@ -5652,8 +6232,11 @@
       <c r="E181" s="6">
         <v>210000</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>363</v>
       </c>
@@ -5669,8 +6252,11 @@
       <c r="E182" s="5">
         <v>222500</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>365</v>
       </c>
@@ -5686,8 +6272,11 @@
       <c r="E183" s="6">
         <v>164000</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>367</v>
       </c>
@@ -5703,8 +6292,11 @@
       <c r="E184" s="5">
         <v>212995</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="4">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>369</v>
       </c>
@@ -5720,8 +6312,11 @@
       <c r="E185" s="6">
         <v>145000</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="4">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>371</v>
       </c>
@@ -5737,8 +6332,11 @@
       <c r="E186" s="5">
         <v>165995</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="4">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>373</v>
       </c>
@@ -5754,8 +6352,11 @@
       <c r="E187" s="6">
         <v>189950</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="4">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>375</v>
       </c>
@@ -5771,8 +6372,11 @@
       <c r="E188" s="5">
         <v>190000</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="4">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>377</v>
       </c>
@@ -5788,8 +6392,11 @@
       <c r="E189" s="6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="4">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>379</v>
       </c>
@@ -5805,8 +6412,11 @@
       <c r="E190" s="5">
         <v>190000</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>381</v>
       </c>
@@ -5822,13 +6432,16 @@
       <c r="E191" s="6">
         <v>280000</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="4">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>383</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>384</v>
+        <v>651</v>
       </c>
       <c r="C192" s="1">
         <v>575.29999999999995</v>
@@ -5839,13 +6452,16 @@
       <c r="E192" s="5">
         <v>307000</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193" t="s">
-        <v>386</v>
+        <v>650</v>
       </c>
       <c r="C193">
         <v>678</v>
@@ -5856,13 +6472,16 @@
       <c r="E193" s="6">
         <v>395550</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="4">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>388</v>
+        <v>652</v>
       </c>
       <c r="C194" s="1">
         <v>630.4</v>
@@ -5873,13 +6492,16 @@
       <c r="E194" s="5">
         <v>385000</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="4">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B195" t="s">
-        <v>390</v>
+        <v>653</v>
       </c>
       <c r="C195">
         <v>693.7</v>
@@ -5890,13 +6512,16 @@
       <c r="E195" s="6">
         <v>343500</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="4">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>392</v>
+        <v>654</v>
       </c>
       <c r="C196" s="1">
         <v>574.9</v>
@@ -5907,13 +6532,16 @@
       <c r="E196" s="5">
         <v>342500</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B197" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="C197">
         <v>556</v>
@@ -5924,13 +6552,16 @@
       <c r="E197" s="6">
         <v>261975</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="4">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="C198" s="1">
         <v>483</v>
@@ -5941,13 +6572,16 @@
       <c r="E198" s="5">
         <v>218000</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="4">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B199" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C199">
         <v>510</v>
@@ -5958,13 +6592,16 @@
       <c r="E199" s="6">
         <v>228000</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="C200" s="1">
         <v>496.9</v>
@@ -5975,13 +6612,16 @@
       <c r="E200" s="5">
         <v>173000</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="4">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B201" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C201">
         <v>537.20000000000005</v>
@@ -5992,13 +6632,16 @@
       <c r="E201" s="6">
         <v>194995</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="4">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C202" s="1">
         <v>517.20000000000005</v>
@@ -6009,13 +6652,16 @@
       <c r="E202" s="5">
         <v>252500</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="4">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B203" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C203">
         <v>461</v>
@@ -6026,13 +6672,16 @@
       <c r="E203" s="6">
         <v>150000</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="4">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C204" s="1">
         <v>559.70000000000005</v>
@@ -6043,13 +6692,16 @@
       <c r="E204" s="5">
         <v>235000</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="4">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C205">
         <v>546.79999999999995</v>
@@ -6060,13 +6712,16 @@
       <c r="E205" s="6">
         <v>215000</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="4">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C206" s="1">
         <v>546.6</v>
@@ -6077,13 +6732,16 @@
       <c r="E206" s="5">
         <v>175000</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B207" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C207">
         <v>458.6</v>
@@ -6094,13 +6752,16 @@
       <c r="E207" s="6">
         <v>210000</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="4">
+        <v>2486</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="C208" s="1">
         <v>496.1</v>
@@ -6111,13 +6772,16 @@
       <c r="E208" s="5">
         <v>280000</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B209" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="C209">
         <v>505.5</v>
@@ -6128,13 +6792,16 @@
       <c r="E209" s="6">
         <v>200000</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="4">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="C210" s="1">
         <v>511.5</v>
@@ -6145,13 +6812,16 @@
       <c r="E210" s="5">
         <v>260000</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B211" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C211">
         <v>629.5</v>
@@ -6162,13 +6832,16 @@
       <c r="E211" s="6">
         <v>575000</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="4">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C212" s="1">
         <v>543.79999999999995</v>
@@ -6179,13 +6852,16 @@
       <c r="E212" s="5">
         <v>470000</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="4">
+        <v>2366</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B213" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C213">
         <v>669.8</v>
@@ -6196,13 +6872,16 @@
       <c r="E213" s="6">
         <v>435000</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="4">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C214" s="1">
         <v>643.29999999999995</v>
@@ -6213,13 +6892,16 @@
       <c r="E214" s="5">
         <v>490000</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B215" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C215">
         <v>651</v>
@@ -6230,13 +6912,16 @@
       <c r="E215" s="6">
         <v>420000</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="4">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="C216" s="1">
         <v>699.2</v>
@@ -6247,13 +6932,16 @@
       <c r="E216" s="5">
         <v>400000</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="4">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B217" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C217">
         <v>638.9</v>
@@ -6264,13 +6952,16 @@
       <c r="E217" s="6">
         <v>390000</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="4">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C218" s="1">
         <v>727</v>
@@ -6281,13 +6972,16 @@
       <c r="E218" s="5">
         <v>425000</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="4">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B219" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C219">
         <v>608.79999999999995</v>
@@ -6298,13 +6992,16 @@
       <c r="E219" s="6">
         <v>436000</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="C220" s="1">
         <v>548.79999999999995</v>
@@ -6315,13 +7012,16 @@
       <c r="E220" s="5">
         <v>465000</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B221" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C221">
         <v>685.7</v>
@@ -6332,13 +7032,16 @@
       <c r="E221" s="6">
         <v>395000</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="4">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C222" s="1">
         <v>523.9</v>
@@ -6349,13 +7052,16 @@
       <c r="E222" s="5">
         <v>207000</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B223" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C223">
         <v>457.3</v>
@@ -6366,13 +7072,16 @@
       <c r="E223" s="6">
         <v>185000</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="4">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="C224" s="1">
         <v>696.2</v>
@@ -6383,13 +7092,16 @@
       <c r="E224" s="5">
         <v>248000</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B225" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C225">
         <v>552.70000000000005</v>
@@ -6400,13 +7112,16 @@
       <c r="E225" s="6">
         <v>315000</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C226" s="1">
         <v>596.4</v>
@@ -6417,13 +7132,16 @@
       <c r="E226" s="5">
         <v>310000</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="4">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B227" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C227">
         <v>493.7</v>
@@ -6434,13 +7152,16 @@
       <c r="E227" s="6">
         <v>315000</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="4">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C228" s="1">
         <v>466.6</v>
@@ -6451,13 +7172,16 @@
       <c r="E228" s="5">
         <v>285000</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="4">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B229" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C229">
         <v>502.5</v>
@@ -6468,13 +7192,16 @@
       <c r="E229" s="6">
         <v>365000</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="4">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C230" s="1">
         <v>652.1</v>
@@ -6485,13 +7212,16 @@
       <c r="E230" s="5">
         <v>292000</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="4">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B231" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C231">
         <v>586.79999999999995</v>
@@ -6502,13 +7232,16 @@
       <c r="E231" s="6">
         <v>385000</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="4">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C232" s="1">
         <v>574.20000000000005</v>
@@ -6519,13 +7252,16 @@
       <c r="E232" s="5">
         <v>377000</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="B233" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C233">
         <v>576.5</v>
@@ -6536,13 +7272,16 @@
       <c r="E233" s="6">
         <v>289975</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="4">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C234" s="1">
         <v>511.4</v>
@@ -6553,13 +7292,16 @@
       <c r="E234" s="5">
         <v>294995</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="4">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B235" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C235">
         <v>444.9</v>
@@ -6570,13 +7312,16 @@
       <c r="E235" s="6">
         <v>280000</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="4">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C236" s="1">
         <v>491.6</v>
@@ -6587,13 +7332,16 @@
       <c r="E236" s="5">
         <v>218000</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="4">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="B237" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C237">
         <v>513.4</v>
@@ -6604,13 +7352,16 @@
       <c r="E237" s="6">
         <v>206000</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="4">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C238" s="1">
         <v>526.79999999999995</v>
@@ -6621,13 +7372,16 @@
       <c r="E238" s="5">
         <v>275000</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="4">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B239" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C239">
         <v>498.8</v>
@@ -6638,13 +7392,16 @@
       <c r="E239" s="6">
         <v>188737.5</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="4">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C240" s="1">
         <v>589.6</v>
@@ -6655,13 +7412,16 @@
       <c r="E240" s="5">
         <v>540000</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="4">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B241" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C241">
         <v>675.8</v>
@@ -6672,13 +7432,16 @@
       <c r="E241" s="6">
         <v>372000</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="4">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C242" s="1">
         <v>605.1</v>
@@ -6689,13 +7452,16 @@
       <c r="E242" s="5">
         <v>409997.5</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="4">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B243" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C243">
         <v>676.9</v>
@@ -6706,13 +7472,16 @@
       <c r="E243" s="6">
         <v>270000</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="4">
+        <v>3383</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="C244" s="1">
         <v>534</v>
@@ -6723,13 +7492,16 @@
       <c r="E244" s="5">
         <v>240000</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="4">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B245" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C245">
         <v>520</v>
@@ -6740,13 +7512,16 @@
       <c r="E245" s="6">
         <v>254995</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C246" s="1">
         <v>544.4</v>
@@ -6757,13 +7532,16 @@
       <c r="E246" s="5">
         <v>232500</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B247" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C247">
         <v>477.8</v>
@@ -6774,13 +7552,16 @@
       <c r="E247" s="6">
         <v>140000</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="4">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C248" s="1">
         <v>532.1</v>
@@ -6791,13 +7572,16 @@
       <c r="E248" s="5">
         <v>175000</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="4">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B249" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C249">
         <v>599.79999999999995</v>
@@ -6808,13 +7592,16 @@
       <c r="E249" s="6">
         <v>185000</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="4">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C250" s="1">
         <v>513.79999999999995</v>
@@ -6825,13 +7612,16 @@
       <c r="E250" s="5">
         <v>137000</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="4">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B251" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C251">
         <v>490.9</v>
@@ -6842,13 +7632,16 @@
       <c r="E251" s="6">
         <v>141500</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="4">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C252" s="1">
         <v>611.9</v>
@@ -6859,13 +7652,16 @@
       <c r="E252" s="5">
         <v>172572</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="4">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="B253" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C253">
         <v>557.29999999999995</v>
@@ -6876,13 +7672,16 @@
       <c r="E253" s="6">
         <v>227000</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="4">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C254" s="1">
         <v>451.5</v>
@@ -6893,13 +7692,16 @@
       <c r="E254" s="5">
         <v>152500</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="4">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B255" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C255">
         <v>542</v>
@@ -6910,13 +7712,16 @@
       <c r="E255" s="6">
         <v>280250</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="4">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C256" s="1">
         <v>525.4</v>
@@ -6927,13 +7732,16 @@
       <c r="E256" s="5">
         <v>149000</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="4">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="B257" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C257">
         <v>909</v>
@@ -6944,13 +7752,16 @@
       <c r="E257" s="6">
         <v>155000</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="4">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C258" s="1">
         <v>591.79999999999995</v>
@@ -6961,13 +7772,16 @@
       <c r="E258" s="5">
         <v>130000</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="4">
+        <v>4453</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="B259" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C259">
         <v>505.5</v>
@@ -6978,13 +7792,16 @@
       <c r="E259" s="6">
         <v>139000</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="4">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C260" s="1">
         <v>512.4</v>
@@ -6995,13 +7812,16 @@
       <c r="E260" s="5">
         <v>175000</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="4">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B261" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C261">
         <v>512.5</v>
@@ -7012,13 +7832,16 @@
       <c r="E261" s="6">
         <v>165000</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="4">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="C262" s="1">
         <v>549.70000000000005</v>
@@ -7029,13 +7852,16 @@
       <c r="E262" s="5">
         <v>135000</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="4">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B263" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C263">
         <v>527.1</v>
@@ -7046,13 +7872,16 @@
       <c r="E263" s="6">
         <v>135000</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="4">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C264" s="1">
         <v>517.29999999999995</v>
@@ -7063,13 +7892,16 @@
       <c r="E264" s="5">
         <v>144000</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="4">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B265" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C265">
         <v>540.5</v>
@@ -7080,13 +7912,16 @@
       <c r="E265" s="6">
         <v>163000</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="4">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="C266" s="1">
         <v>575</v>
@@ -7097,13 +7932,16 @@
       <c r="E266" s="5">
         <v>162500</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="4">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B267" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C267">
         <v>502.1</v>
@@ -7114,13 +7952,16 @@
       <c r="E267" s="6">
         <v>173000</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="4">
+        <v>2526</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="C268" s="1">
         <v>539.4</v>
@@ -7131,13 +7972,16 @@
       <c r="E268" s="5">
         <v>136250</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="4">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="B269" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C269">
         <v>525.20000000000005</v>
@@ -7148,13 +7992,16 @@
       <c r="E269" s="6">
         <v>127500</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="4">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C270" s="1">
         <v>602.4</v>
@@ -7165,13 +8012,16 @@
       <c r="E270" s="5">
         <v>182000</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="4">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B271" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C271">
         <v>611.5</v>
@@ -7182,13 +8032,16 @@
       <c r="E271" s="6">
         <v>183000</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="4">
+        <v>3766</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="C272" s="1">
         <v>530.4</v>
@@ -7199,13 +8052,16 @@
       <c r="E272" s="5">
         <v>175000</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="4">
+        <v>3283</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B273" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C273">
         <v>521</v>
@@ -7216,13 +8072,16 @@
       <c r="E273" s="6">
         <v>155000</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="4">
+        <v>3839</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C274" s="1">
         <v>588.9</v>
@@ -7233,13 +8092,16 @@
       <c r="E274" s="5">
         <v>280000</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="4">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B275" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C275">
         <v>538</v>
@@ -7250,13 +8112,16 @@
       <c r="E275" s="6">
         <v>155000</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="4">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C276" s="1">
         <v>574.6</v>
@@ -7267,13 +8132,16 @@
       <c r="E276" s="5">
         <v>155000</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="4">
+        <v>3793</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B277" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C277">
         <v>547.20000000000005</v>
@@ -7284,13 +8152,16 @@
       <c r="E277" s="6">
         <v>140000</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="4">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C278" s="1">
         <v>518.6</v>
@@ -7301,13 +8172,16 @@
       <c r="E278" s="5">
         <v>148725</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="B279" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C279">
         <v>493.7</v>
@@ -7318,13 +8192,16 @@
       <c r="E279" s="6">
         <v>160000</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="4">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C280" s="1">
         <v>573</v>
@@ -7335,13 +8212,16 @@
       <c r="E280" s="5">
         <v>187000</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="4">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B281" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C281">
         <v>537.1</v>
@@ -7352,13 +8232,16 @@
       <c r="E281" s="6">
         <v>160000</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="4">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C282" s="1">
         <v>475.3</v>
@@ -7369,13 +8252,16 @@
       <c r="E282" s="5">
         <v>140000</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="4">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B283" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C283">
         <v>1103.0999999999999</v>
@@ -7386,13 +8272,16 @@
       <c r="E283" s="6">
         <v>842500</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="4">
+        <v>3361</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C284" s="1">
         <v>586.20000000000005</v>
@@ -7403,13 +8292,16 @@
       <c r="E284" s="5">
         <v>318000</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="4">
+        <v>5898</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="B285" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C285">
         <v>578.70000000000005</v>
@@ -7420,13 +8312,16 @@
       <c r="E285" s="6">
         <v>530000</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="4">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C286" s="1">
         <v>541.79999999999995</v>
@@ -7437,13 +8332,16 @@
       <c r="E286" s="5">
         <v>360000</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="4">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B287" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C287">
         <v>670.5</v>
@@ -7454,13 +8352,16 @@
       <c r="E287" s="6">
         <v>480632.5</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="4">
+        <v>7628</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C288" s="1">
         <v>611.1</v>
@@ -7471,13 +8372,16 @@
       <c r="E288" s="5">
         <v>445000</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="4">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B289" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C289">
         <v>766.1</v>
@@ -7488,13 +8392,16 @@
       <c r="E289" s="6">
         <v>795000</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="4">
+        <v>12393</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C290" s="1">
         <v>655.5</v>
@@ -7505,13 +8412,16 @@
       <c r="E290" s="5">
         <v>385000</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="4">
+        <v>4471</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="B291" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C291">
         <v>604.20000000000005</v>
@@ -7522,13 +8432,16 @@
       <c r="E291" s="6">
         <v>470000</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="4">
+        <v>6154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C292" s="1">
         <v>574.9</v>
@@ -7539,13 +8452,16 @@
       <c r="E292" s="5">
         <v>415000</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="4">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="B293" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C293">
         <v>638.1</v>
@@ -7556,13 +8472,16 @@
       <c r="E293" s="6">
         <v>460000</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="4">
+        <v>6086</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C294" s="1">
         <v>706.7</v>
@@ -7573,13 +8492,16 @@
       <c r="E294" s="5">
         <v>620000</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="4">
+        <v>14758</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B295" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C295">
         <v>763</v>
@@ -7590,13 +8512,16 @@
       <c r="E295" s="6">
         <v>750000</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="4">
+        <v>11287</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="C296" s="1">
         <v>631</v>
@@ -7607,13 +8532,16 @@
       <c r="E296" s="5">
         <v>515000</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="4">
+        <v>9076</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B297" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C297">
         <v>519.20000000000005</v>
@@ -7624,13 +8552,16 @@
       <c r="E297" s="6">
         <v>460000</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="4">
+        <v>4977</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C298" s="1">
         <v>650.4</v>
@@ -7641,13 +8572,16 @@
       <c r="E298" s="5">
         <v>370000</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="4">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="B299" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C299">
         <v>676.6</v>
@@ -7658,13 +8592,16 @@
       <c r="E299" s="6">
         <v>420000</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="4">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C300" s="1">
         <v>669.4</v>
@@ -7675,13 +8612,16 @@
       <c r="E300" s="5">
         <v>420000</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="4">
+        <v>4851</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="B301" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C301">
         <v>756</v>
@@ -7692,13 +8632,16 @@
       <c r="E301" s="6">
         <v>620000</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="4">
+        <v>16321</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C302" s="1">
         <v>662.4</v>
@@ -7709,13 +8652,16 @@
       <c r="E302" s="5">
         <v>1300000</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="4">
+        <v>12876</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="B303" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C303">
         <v>635.20000000000005</v>
@@ -7726,13 +8672,16 @@
       <c r="E303" s="6">
         <v>490000</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="4">
+        <v>4764</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C304" s="1">
         <v>728.2</v>
@@ -7743,13 +8692,16 @@
       <c r="E304" s="5">
         <v>542105</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="4">
+        <v>12156</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="B305" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="C305">
         <v>671.4</v>
@@ -7760,13 +8712,16 @@
       <c r="E305" s="6">
         <v>427500</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="4">
+        <v>8702</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C306" s="1">
         <v>588.6</v>
@@ -7777,13 +8732,16 @@
       <c r="E306" s="5">
         <v>471750</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="4">
+        <v>5490</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="B307" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C307">
         <v>621</v>
@@ -7794,13 +8752,16 @@
       <c r="E307" s="6">
         <v>412019</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="4">
+        <v>9756</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C308" s="1">
         <v>582.79999999999995</v>
@@ -7811,13 +8772,16 @@
       <c r="E308" s="5">
         <v>429000</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="4">
+        <v>5411</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="B309" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C309">
         <v>667.8</v>
@@ -7828,13 +8792,16 @@
       <c r="E309" s="6">
         <v>635500</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="4">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C310" s="1">
         <v>806.7</v>
@@ -7845,13 +8812,16 @@
       <c r="E310" s="5">
         <v>540000</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="4">
+        <v>11045</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B311" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C311">
         <v>618.6</v>
@@ -7862,13 +8832,16 @@
       <c r="E311" s="6">
         <v>395000</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="4">
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C312" s="1">
         <v>956.3</v>
@@ -7879,13 +8852,16 @@
       <c r="E312" s="5">
         <v>500000</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="4">
+        <v>16427</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="B313" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C313">
         <v>685.6</v>
@@ -7896,13 +8872,16 @@
       <c r="E313" s="6">
         <v>452250</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="4">
+        <v>7137</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C314" s="1">
         <v>614.20000000000005</v>
@@ -7913,13 +8892,16 @@
       <c r="E314" s="5">
         <v>639975</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="4">
+        <v>9624</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="B315" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C315">
         <v>838.4</v>
@@ -7930,13 +8912,16 @@
       <c r="E315" s="6">
         <v>999175</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="4">
+        <v>12167</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>632</v>
+        <v>655</v>
       </c>
       <c r="C316" s="1">
         <v>531.20000000000005</v>
@@ -7947,13 +8932,16 @@
       <c r="E316" s="5">
         <v>176500</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B317" t="s">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="C317">
         <v>479</v>
@@ -7964,13 +8952,16 @@
       <c r="E317" s="6">
         <v>160000</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="C318" s="1">
         <v>513.29999999999995</v>
@@ -7981,13 +8972,16 @@
       <c r="E318" s="5">
         <v>168000</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B319" t="s">
-        <v>638</v>
+        <v>658</v>
       </c>
       <c r="C319">
         <v>563.6</v>
@@ -7998,13 +8992,16 @@
       <c r="E319" s="6">
         <v>152250</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="4">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>640</v>
+        <v>659</v>
       </c>
       <c r="C320" s="1">
         <v>574.9</v>
@@ -8015,13 +9012,16 @@
       <c r="E320" s="5">
         <v>167500</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="B321" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="C321">
         <v>565.70000000000005</v>
@@ -8032,13 +9032,16 @@
       <c r="E321" s="6">
         <v>153000</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>644</v>
+        <v>661</v>
       </c>
       <c r="C322" s="1">
         <v>451.5</v>
@@ -8049,13 +9052,16 @@
       <c r="E322" s="5">
         <v>185750</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B323" t="s">
-        <v>646</v>
+        <v>662</v>
       </c>
       <c r="C323">
         <v>492.9</v>
@@ -8066,13 +9072,16 @@
       <c r="E323" s="6">
         <v>180000</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="C324" s="1">
         <v>568.6</v>
@@ -8083,13 +9092,16 @@
       <c r="E324" s="5">
         <v>145000</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="B325" t="s">
-        <v>650</v>
+        <v>664</v>
       </c>
       <c r="C325">
         <v>531.9</v>
@@ -8100,13 +9112,16 @@
       <c r="E325" s="6">
         <v>154995</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="4">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C326" s="1">
         <v>566.4</v>
@@ -8117,13 +9132,16 @@
       <c r="E326" s="5">
         <v>120000</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="4">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="B327" t="s">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="C327">
         <v>464.1</v>
@@ -8134,13 +9152,16 @@
       <c r="E327" s="6">
         <v>159995</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="4">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="C328" s="1">
         <v>499.4</v>
@@ -8151,13 +9172,16 @@
       <c r="E328" s="5">
         <v>224000</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>657</v>
+        <v>639</v>
       </c>
       <c r="B329" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="C329">
         <v>551.4</v>
@@ -8168,13 +9192,16 @@
       <c r="E329" s="6">
         <v>210000</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="4">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>659</v>
+        <v>640</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>660</v>
+        <v>669</v>
       </c>
       <c r="C330" s="1">
         <v>521.20000000000005</v>
@@ -8185,13 +9212,16 @@
       <c r="E330" s="5">
         <v>115000</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
       <c r="B331" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="C331">
         <v>503.4</v>
@@ -8202,13 +9232,16 @@
       <c r="E331" s="6">
         <v>137500</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>664</v>
+        <v>671</v>
       </c>
       <c r="C332" s="1">
         <v>518.1</v>
@@ -8219,13 +9252,16 @@
       <c r="E332" s="5">
         <v>90000</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="B333" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="C333">
         <v>572.70000000000005</v>
@@ -8236,13 +9272,16 @@
       <c r="E333" s="6">
         <v>157500</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="4">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C334" s="1">
         <v>574.9</v>
@@ -8253,13 +9292,16 @@
       <c r="E334" s="5">
         <v>262000</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="B335" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="C335">
         <v>550.1</v>
@@ -8270,13 +9312,16 @@
       <c r="E335" s="6">
         <v>179950</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="4">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>671</v>
+        <v>646</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="C336" s="1">
         <v>540.20000000000005</v>
@@ -8287,13 +9332,16 @@
       <c r="E336" s="5">
         <v>180000</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F336" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>673</v>
+        <v>647</v>
       </c>
       <c r="B337" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C337">
         <v>534</v>
@@ -8303,6 +9351,9 @@
       </c>
       <c r="E337" s="7">
         <v>113000</v>
+      </c>
+      <c r="F337" s="4">
+        <v>541</v>
       </c>
     </row>
   </sheetData>
